--- a/medicine/Pharmacie/Étohexadiol/Étohexadiol.xlsx
+++ b/medicine/Pharmacie/Étohexadiol/Étohexadiol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tohexadiol</t>
+          <t>Étohexadiol</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'étohexadiol, 2-éthylhexane-1,3-diol ou encore octylène glycol est un composé organique de la famille des diols. Il est utilisé comme ectoparasiticide.
-C'est un liquide très peu inflammable, soluble dans l'eau et légèrement volatil[1].
+C'est un liquide très peu inflammable, soluble dans l'eau et légèrement volatil.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89tohexadiol</t>
+          <t>Étohexadiol</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Stéréochimie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La molécule d'étohexadiol possède deux atomes de carbone asymétriques et pas de plan de symétrie. Il existe donc deux paires d'énantiomères, diastéréoisomères entre elles de l'étohexadiol :
 (2R,3R)-2-éthylhexane-1,3-diol
